--- a/Assignment_2/Result.xlsx
+++ b/Assignment_2/Result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梁哲榕\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D834FA-2FAB-4F68-B61D-D7BBCC67836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7DB8E-D42D-49AA-A2A4-1E684D730BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2865" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabu" sheetId="1" r:id="rId1"/>
+    <sheet name="GA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>tabu size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,42 @@
   </si>
   <si>
     <t>[11, 3, 16, 15, 4, 7, 0, 10, 9, 13, 1, 17, 19, 8, 12, 6, 5, 14, 2, 18]</t>
+  </si>
+  <si>
+    <t>population size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutation rate(0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossover rate(0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,13 +164,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -177,7 +219,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,7 +600,7 @@
       <c r="K3" s="4">
         <v>1973</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="8">
         <v>1928</v>
       </c>
       <c r="M3" s="4">
@@ -719,6 +769,436 @@
       </c>
       <c r="M7" s="4">
         <v>0.359375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A730BC-D93E-4ECE-BE1C-99031E353484}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2627</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2876</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2186</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(G2:I2)</f>
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>500</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2344</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2078</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2171</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J10" si="0">AVERAGE(G3:I3)</f>
+        <v>2197.6666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2235</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2299</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2237</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2145</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2698</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2243</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>500</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2118</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2099</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2122</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2140</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2390</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2194</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>2241.3333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1982</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2130</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1971</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>2027.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>500</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2013</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2089</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>2039.6666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2043</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2089</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2045</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5">
+        <v>500</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
